--- a/biology/Zoologie/Aigle_martial/Aigle_martial.xlsx
+++ b/biology/Zoologie/Aigle_martial/Aigle_martial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polemaetus bellicosus
 L’Aigle martial (Polemaetus bellicosus) est une espèce de grands aigles huppés d'Afrique. C'est la seule espèce du genre Polemaetus.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Juvénile
@@ -548,7 +562,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de vertébrés de 1 - 5 kg. Il s'attaque parfois à des guépards pour leur voler leurs proies.
 </t>
@@ -579,7 +595,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle pond un œuf tous les deux ans environ. L'œuf est couvé de 45 à 53 jours.
 </t>
